--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il7-Il2rg.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il7-Il2rg.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.278304</v>
+        <v>0.1063306666666667</v>
       </c>
       <c r="H2">
-        <v>0.834912</v>
+        <v>0.318992</v>
       </c>
       <c r="I2">
-        <v>0.4516206505970134</v>
+        <v>0.2215797714128531</v>
       </c>
       <c r="J2">
-        <v>0.4516206505970135</v>
+        <v>0.2215797714128531</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.84733166666667</v>
+        <v>7.236245333333333</v>
       </c>
       <c r="N2">
-        <v>68.541995</v>
+        <v>21.708736</v>
       </c>
       <c r="O2">
-        <v>0.8188848782804395</v>
+        <v>0.6630432242917509</v>
       </c>
       <c r="P2">
-        <v>0.8188848782804397</v>
+        <v>0.6630432242917509</v>
       </c>
       <c r="Q2">
-        <v>6.35850379216</v>
+        <v>0.7694347904568889</v>
       </c>
       <c r="R2">
-        <v>57.22653412944</v>
+        <v>6.924913114111999</v>
       </c>
       <c r="S2">
-        <v>0.3698253214930682</v>
+        <v>0.1469169660754072</v>
       </c>
       <c r="T2">
-        <v>0.3698253214930683</v>
+        <v>0.1469169660754072</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.278304</v>
+        <v>0.1063306666666667</v>
       </c>
       <c r="H3">
-        <v>0.834912</v>
+        <v>0.318992</v>
       </c>
       <c r="I3">
-        <v>0.4516206505970134</v>
+        <v>0.2215797714128531</v>
       </c>
       <c r="J3">
-        <v>0.4516206505970135</v>
+        <v>0.2215797714128531</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.124011</v>
       </c>
       <c r="O3">
-        <v>0.00148158413889814</v>
+        <v>0.003787629702975075</v>
       </c>
       <c r="P3">
-        <v>0.00148158413889814</v>
+        <v>0.003787629702975075</v>
       </c>
       <c r="Q3">
-        <v>0.011504252448</v>
+        <v>0.004395390768</v>
       </c>
       <c r="R3">
-        <v>0.103538272032</v>
+        <v>0.039558516912</v>
       </c>
       <c r="S3">
-        <v>0.0006691139927233938</v>
+        <v>0.0008392621237817497</v>
       </c>
       <c r="T3">
-        <v>0.0006691139927233939</v>
+        <v>0.0008392621237817498</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.278304</v>
+        <v>0.1063306666666667</v>
       </c>
       <c r="H4">
-        <v>0.834912</v>
+        <v>0.318992</v>
       </c>
       <c r="I4">
-        <v>0.4516206505970134</v>
+        <v>0.2215797714128531</v>
       </c>
       <c r="J4">
-        <v>0.4516206505970135</v>
+        <v>0.2215797714128531</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.011873</v>
+        <v>3.636103333333333</v>
       </c>
       <c r="N4">
-        <v>15.035619</v>
+        <v>10.90831</v>
       </c>
       <c r="O4">
-        <v>0.1796335375806623</v>
+        <v>0.3331691460052741</v>
       </c>
       <c r="P4">
-        <v>0.1796335375806623</v>
+        <v>0.3331691460052741</v>
       </c>
       <c r="Q4">
-        <v>1.394824303392</v>
+        <v>0.3866292915022222</v>
       </c>
       <c r="R4">
-        <v>12.553418730528</v>
+        <v>3.47966362352</v>
       </c>
       <c r="S4">
-        <v>0.08112621511122176</v>
+        <v>0.07382354321366411</v>
       </c>
       <c r="T4">
-        <v>0.08112621511122177</v>
+        <v>0.07382354321366411</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.8932249999999999</v>
       </c>
       <c r="I5">
-        <v>0.4831633221579247</v>
+        <v>0.6204562851740659</v>
       </c>
       <c r="J5">
-        <v>0.4831633221579248</v>
+        <v>0.620456285174066</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.84733166666667</v>
+        <v>7.236245333333333</v>
       </c>
       <c r="N5">
-        <v>68.541995</v>
+        <v>21.708736</v>
       </c>
       <c r="O5">
-        <v>0.8188848782804395</v>
+        <v>0.6630432242917509</v>
       </c>
       <c r="P5">
-        <v>0.8188848782804397</v>
+        <v>0.6630432242917509</v>
       </c>
       <c r="Q5">
-        <v>6.802602609319443</v>
+        <v>2.154531745955555</v>
       </c>
       <c r="R5">
-        <v>61.223423483875</v>
+        <v>19.3907857136</v>
       </c>
       <c r="S5">
-        <v>0.395655138254865</v>
+        <v>0.4113893358538948</v>
       </c>
       <c r="T5">
-        <v>0.3956551382548651</v>
+        <v>0.4113893358538948</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.8932249999999999</v>
       </c>
       <c r="I6">
-        <v>0.4831633221579247</v>
+        <v>0.6204562851740659</v>
       </c>
       <c r="J6">
-        <v>0.4831633221579248</v>
+        <v>0.620456285174066</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.124011</v>
       </c>
       <c r="O6">
-        <v>0.00148158413889814</v>
+        <v>0.003787629702975075</v>
       </c>
       <c r="P6">
-        <v>0.00148158413889814</v>
+        <v>0.003787629702975075</v>
       </c>
       <c r="Q6">
         <v>0.012307747275</v>
@@ -818,10 +818,10 @@
         <v>0.110769725475</v>
       </c>
       <c r="S6">
-        <v>0.0007158471146065134</v>
+        <v>0.002350058655122866</v>
       </c>
       <c r="T6">
-        <v>0.0007158471146065135</v>
+        <v>0.002350058655122866</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.8932249999999999</v>
       </c>
       <c r="I7">
-        <v>0.4831633221579247</v>
+        <v>0.6204562851740659</v>
       </c>
       <c r="J7">
-        <v>0.4831633221579248</v>
+        <v>0.620456285174066</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.011873</v>
+        <v>3.636103333333333</v>
       </c>
       <c r="N7">
-        <v>15.035619</v>
+        <v>10.90831</v>
       </c>
       <c r="O7">
-        <v>0.1796335375806623</v>
+        <v>0.3331691460052741</v>
       </c>
       <c r="P7">
-        <v>0.1796335375806623</v>
+        <v>0.3331691460052741</v>
       </c>
       <c r="Q7">
-        <v>1.492243420141667</v>
+        <v>1.082619466638889</v>
       </c>
       <c r="R7">
-        <v>13.430190781275</v>
+        <v>9.74357519975</v>
       </c>
       <c r="S7">
-        <v>0.0867923367884532</v>
+        <v>0.2067168906650483</v>
       </c>
       <c r="T7">
-        <v>0.08679233678845323</v>
+        <v>0.2067168906650484</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.04018833333333333</v>
+        <v>0.075803</v>
       </c>
       <c r="H8">
-        <v>0.120565</v>
+        <v>0.227409</v>
       </c>
       <c r="I8">
-        <v>0.06521602724506166</v>
+        <v>0.1579639434130809</v>
       </c>
       <c r="J8">
-        <v>0.06521602724506168</v>
+        <v>0.1579639434130809</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.84733166666667</v>
+        <v>7.236245333333333</v>
       </c>
       <c r="N8">
-        <v>68.541995</v>
+        <v>21.708736</v>
       </c>
       <c r="O8">
-        <v>0.8188848782804395</v>
+        <v>0.6630432242917509</v>
       </c>
       <c r="P8">
-        <v>0.8188848782804397</v>
+        <v>0.6630432242917509</v>
       </c>
       <c r="Q8">
-        <v>0.9181961807972222</v>
+        <v>0.5485291050026666</v>
       </c>
       <c r="R8">
-        <v>8.263765627175001</v>
+        <v>4.936761945023999</v>
       </c>
       <c r="S8">
-        <v>0.05340441853250615</v>
+        <v>0.1047369223624488</v>
       </c>
       <c r="T8">
-        <v>0.05340441853250617</v>
+        <v>0.1047369223624489</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.04018833333333333</v>
+        <v>0.075803</v>
       </c>
       <c r="H9">
-        <v>0.120565</v>
+        <v>0.227409</v>
       </c>
       <c r="I9">
-        <v>0.06521602724506166</v>
+        <v>0.1579639434130809</v>
       </c>
       <c r="J9">
-        <v>0.06521602724506168</v>
+        <v>0.1579639434130809</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,22 +992,22 @@
         <v>0.124011</v>
       </c>
       <c r="O9">
-        <v>0.00148158413889814</v>
+        <v>0.003787629702975075</v>
       </c>
       <c r="P9">
-        <v>0.00148158413889814</v>
+        <v>0.003787629702975075</v>
       </c>
       <c r="Q9">
-        <v>0.001661265135</v>
+        <v>0.003133468611</v>
       </c>
       <c r="R9">
-        <v>0.014951386215</v>
+        <v>0.028201217499</v>
       </c>
       <c r="S9">
-        <v>9.662303156823229E-05</v>
+        <v>0.0005983089240704591</v>
       </c>
       <c r="T9">
-        <v>9.662303156823232E-05</v>
+        <v>0.0005983089240704592</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.04018833333333333</v>
+        <v>0.075803</v>
       </c>
       <c r="H10">
-        <v>0.120565</v>
+        <v>0.227409</v>
       </c>
       <c r="I10">
-        <v>0.06521602724506166</v>
+        <v>0.1579639434130809</v>
       </c>
       <c r="J10">
-        <v>0.06521602724506168</v>
+        <v>0.1579639434130809</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.011873</v>
+        <v>3.636103333333333</v>
       </c>
       <c r="N10">
-        <v>15.035619</v>
+        <v>10.90831</v>
       </c>
       <c r="O10">
-        <v>0.1796335375806623</v>
+        <v>0.3331691460052741</v>
       </c>
       <c r="P10">
-        <v>0.1796335375806623</v>
+        <v>0.3331691460052741</v>
       </c>
       <c r="Q10">
-        <v>0.2014188227483333</v>
+        <v>0.2756275409766666</v>
       </c>
       <c r="R10">
-        <v>1.812769404735</v>
+        <v>2.48064786879</v>
       </c>
       <c r="S10">
-        <v>0.01171498568098728</v>
+        <v>0.0526287121265616</v>
       </c>
       <c r="T10">
-        <v>0.01171498568098728</v>
+        <v>0.05262871212656161</v>
       </c>
     </row>
   </sheetData>
